--- a/artist_meta_filled_UPDATED_new.xlsx
+++ b/artist_meta_filled_UPDATED_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F08C6F-6CEA-4646-AD22-0E2690109F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49350558-2BAE-47F9-AFAC-F66D52C5677B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="179">
   <si>
     <t>artist</t>
   </si>
@@ -205,9 +205,6 @@
     <t>artists_photos/roger_waters.jpg</t>
   </si>
   <si>
-    <t>artists_photos/the_weeknd.jpg</t>
-  </si>
-  <si>
     <t>artists_photos/billie_eilish.jpg</t>
   </si>
   <si>
@@ -352,15 +349,6 @@
     <t>artists_photos/anna_zak.jpg</t>
   </si>
   <si>
-    <t>artists_photos/arctic_monkeys.jpg</t>
-  </si>
-  <si>
-    <t>artists_photos/ariana_grande.jpg</t>
-  </si>
-  <si>
-    <t>artists_photos/avraham_tal.jpg</t>
-  </si>
-  <si>
     <t>artists_photos/benaia_barabi.jpg</t>
   </si>
   <si>
@@ -382,9 +370,6 @@
     <t>artists_photos/eden_hason.jpg</t>
   </si>
   <si>
-    <t>artists_photos/harry_styles.jpg</t>
-  </si>
-  <si>
     <t>artists_photos/idan_amedi.jpg</t>
   </si>
   <si>
@@ -404,6 +389,174 @@
   </si>
   <si>
     <t>artists_photos/idan_rafael_haviv.jpg</t>
+  </si>
+  <si>
+    <t>artists_photos/Lukas Graham.webp</t>
+  </si>
+  <si>
+    <t>artists_photos/Meghan Trainor</t>
+  </si>
+  <si>
+    <t>artists_photos/Miley Cyrus</t>
+  </si>
+  <si>
+    <t>artists_photos/Nathan Goshen</t>
+  </si>
+  <si>
+    <t>artists_photos/Noam Bettan</t>
+  </si>
+  <si>
+    <t>artists_photos/Olivia Rodrigo</t>
+  </si>
+  <si>
+    <t>artists_photos/OneRepublic</t>
+  </si>
+  <si>
+    <t>artists_photos/Peer Tasi</t>
+  </si>
+  <si>
+    <t>artists_photos/Ravid Plotnik</t>
+  </si>
+  <si>
+    <t>artists_photos/Raviv Kaner</t>
+  </si>
+  <si>
+    <t>artists_photos/The Beatles</t>
+  </si>
+  <si>
+    <t>artists_photos/Twenty One Pilots</t>
+  </si>
+  <si>
+    <t>artists_photos/Vance Joy</t>
+  </si>
+  <si>
+    <t>artists_photos/Tuna</t>
+  </si>
+  <si>
+    <t>artists_photos/Sia</t>
+  </si>
+  <si>
+    <t>Mor</t>
+  </si>
+  <si>
+    <t>Full Trunk</t>
+  </si>
+  <si>
+    <t>E-Z</t>
+  </si>
+  <si>
+    <t>Avi Aburomi</t>
+  </si>
+  <si>
+    <t>artists_photos/Harry_Styles.avif</t>
+  </si>
+  <si>
+    <t>Bebe Rexha</t>
+  </si>
+  <si>
+    <t>Travis Scott</t>
+  </si>
+  <si>
+    <t>Metro Boomin</t>
+  </si>
+  <si>
+    <t>artists_photos/the_weekend.jpg</t>
+  </si>
+  <si>
+    <t>David Guetta</t>
+  </si>
+  <si>
+    <t>Kali Uchis</t>
+  </si>
+  <si>
+    <t>Tyler The Creator</t>
+  </si>
+  <si>
+    <t>Agam Buhbut</t>
+  </si>
+  <si>
+    <t>Shahar Saul</t>
+  </si>
+  <si>
+    <t>artists_photos/Mor</t>
+  </si>
+  <si>
+    <t>artists_photos/Full Trunk</t>
+  </si>
+  <si>
+    <t>artists_photos/E-Z</t>
+  </si>
+  <si>
+    <t>artists_photos/Avi Aburomi</t>
+  </si>
+  <si>
+    <t>artists_photos/Bebe Rexha</t>
+  </si>
+  <si>
+    <t>artists_photos/Travis Scott</t>
+  </si>
+  <si>
+    <t>artists_photos/Metro Boomin</t>
+  </si>
+  <si>
+    <t>artists_photos/David Guetta</t>
+  </si>
+  <si>
+    <t>artists_photos/Tyler The Creator</t>
+  </si>
+  <si>
+    <t>artists_photos/Kali Uchis</t>
+  </si>
+  <si>
+    <t>artists_photos/Agam Buhbut</t>
+  </si>
+  <si>
+    <t>artists_photos/Shahar Saul</t>
+  </si>
+  <si>
+    <t>Dudu Tassa</t>
+  </si>
+  <si>
+    <t>Avishai Cohen</t>
+  </si>
+  <si>
+    <t>Yonatan Kalimi</t>
+  </si>
+  <si>
+    <t>Doli &amp; Penn</t>
+  </si>
+  <si>
+    <t>21 Savage</t>
+  </si>
+  <si>
+    <t>Marina Maximilian</t>
+  </si>
+  <si>
+    <t>Gal Adam</t>
+  </si>
+  <si>
+    <t>NOROZ</t>
+  </si>
+  <si>
+    <t>Sagi Kariv</t>
+  </si>
+  <si>
+    <t>Forever Tel Aviv</t>
+  </si>
+  <si>
+    <t>Netta</t>
+  </si>
+  <si>
+    <t>יגל אושרי</t>
+  </si>
+  <si>
+    <t>artists_photos/Ariana Grande.webp</t>
+  </si>
+  <si>
+    <t>artists_photos/Avraham Tal.webp</t>
+  </si>
+  <si>
+    <t>artists_photos/Arctic Monkeys.webp</t>
   </si>
 </sst>
 </file>
@@ -771,14 +924,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1248,7 +1408,7 @@
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1268,7 +1428,7 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1288,7 +1448,7 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1308,7 +1468,7 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1328,7 +1488,7 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1348,7 +1508,7 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1368,7 +1528,7 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1388,7 +1548,7 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1408,7 +1568,7 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1422,13 +1582,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1442,13 +1602,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1462,13 +1622,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1488,7 +1648,7 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1502,13 +1662,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1522,13 +1682,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1542,13 +1702,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1562,13 +1722,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1582,10 +1742,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1599,13 +1759,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1619,13 +1779,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1639,13 +1799,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1659,13 +1819,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1679,13 +1839,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1699,13 +1859,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1719,13 +1879,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1739,13 +1899,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1759,13 +1919,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
         <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1779,13 +1939,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1799,13 +1959,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
         <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1819,10 +1979,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>123</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1836,10 +1999,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
         <v>38</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1853,10 +2019,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
         <v>38</v>
+      </c>
+      <c r="C55" t="s">
+        <v>125</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1870,10 +2039,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1887,10 +2059,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>127</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1904,10 +2079,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
         <v>38</v>
+      </c>
+      <c r="C58" t="s">
+        <v>128</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1921,10 +2099,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
         <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>129</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1938,10 +2119,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1955,10 +2139,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1972,10 +2159,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
+      </c>
+      <c r="C62" t="s">
+        <v>132</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1989,10 +2179,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="C63" t="s">
+        <v>133</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2006,10 +2199,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
         <v>38</v>
+      </c>
+      <c r="C64" t="s">
+        <v>134</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2023,10 +2219,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="C65" t="s">
+        <v>135</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2040,10 +2239,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>136</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2057,10 +2259,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2070,6 +2275,311 @@
       </c>
       <c r="F67">
         <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" t="s">
+        <v>158</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" t="s">
+        <v>159</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
